--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/VERMONT_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/VERMONT_2010.xlsx
@@ -360,79 +360,67 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COMITAN DE DOMINGUEZ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.25E-2</t>
-        </is>
+          <t>Comitan De Dominguez</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.25E-2</t>
-        </is>
+          <t>Las Margaritas</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.1700000000000001E-2</t>
-        </is>
+          <t>Mazapa De Madero</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.0417</v>
       </c>
     </row>
     <row r="5">
@@ -441,37 +429,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.16669999999999999</t>
-        </is>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0.1667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Gustavo A. Madero</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="7">
@@ -480,37 +460,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
+          <t>Atlixtac</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.125</v>
       </c>
     </row>
     <row r="9">
@@ -519,37 +491,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0.125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OAXACA DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.3299999999999999E-2</t>
-        </is>
+          <t>Oaxaca De Juarez</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.0833</v>
       </c>
     </row>
     <row r="11">
@@ -558,71 +522,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.3299999999999999E-2</t>
-        </is>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0.0833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Atempan</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Hueytamalco</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TEZIUTLAN</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Teziutlan</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="15">
@@ -631,71 +579,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.25E-2</t>
-        </is>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CARDENAS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.3299999999999999E-2</t>
-        </is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.0833</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
+          <t>Huimanguillo</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0.125</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>PARAISO</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Paraiso</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="19">
@@ -704,37 +636,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.22919999999999999</t>
-        </is>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>0.2292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Matamoros</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="21">
@@ -743,139 +667,107 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.25E-2</t>
-        </is>
+          <t>Atzalan</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>ISLA</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.1700000000000001E-2</t>
-        </is>
+          <t>Isla</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0.0417</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>JOSE AZUETA</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.1700000000000001E-2</t>
-        </is>
+          <t>Jose Azueta</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0.0417</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>MARTINEZ DE LA TORRE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Martinez De La Torre</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.3299999999999999E-2</t>
-        </is>
+          <t>Playa Vicente</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.0833</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>TATATILA</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Tatatila</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>TLACOJALPAN</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.0799999999999999E-2</t>
-        </is>
+          <t>Tlacojalpan</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.0208</v>
       </c>
     </row>
     <row r="29">
@@ -884,21 +776,17 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.29170000000000001</t>
-        </is>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>0.2917</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -906,15 +794,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C30">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/VERMONT_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/VERMONT_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Paraiso</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tatatila</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Tlacojalpan</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
